--- a/runs/run507/NotionalETEOutput507.xlsx
+++ b/runs/run507/NotionalETEOutput507.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER1_State_Update</t>
+    <t>Missile_SOMERSAULT1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER1_482.MISSILE_BRAVER1_482</t>
+    <t>MISSILE_SOMERSAULT1_485.MISSILE_SOMERSAULT1_485</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER1</t>
+    <t>MISSILE_SOMERSAULT1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1564.434194514706</v>
+        <v>-1539.982000481303</v>
       </c>
       <c r="J2">
-        <v>1920.413507635377</v>
+        <v>1984.31534462973</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1509.263892295968</v>
+        <v>-1447.536253779642</v>
       </c>
       <c r="J3">
-        <v>1985.642001837247</v>
+        <v>2009.384686357162</v>
       </c>
       <c r="K3">
-        <v>311.7642165258999</v>
+        <v>308.3782582561112</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1465.325095887906</v>
+        <v>-1405.950481741552</v>
       </c>
       <c r="J4">
-        <v>1867.806726103543</v>
+        <v>1852.723478853862</v>
       </c>
       <c r="K4">
-        <v>618.3769801890161</v>
+        <v>572.4087054299359</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1419.107797836537</v>
+        <v>-1470.202185799081</v>
       </c>
       <c r="J5">
-        <v>1802.332363512474</v>
+        <v>1816.055322801328</v>
       </c>
       <c r="K5">
-        <v>850.0787920100887</v>
+        <v>890.8243668717332</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1427.804064664921</v>
+        <v>-1396.257927114261</v>
       </c>
       <c r="J6">
-        <v>1857.911430252098</v>
+        <v>1780.756644523207</v>
       </c>
       <c r="K6">
-        <v>1120.211915760441</v>
+        <v>1148.034543094649</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1293.339436914662</v>
+        <v>-1302.954093589007</v>
       </c>
       <c r="J7">
-        <v>1677.745147121459</v>
+        <v>1706.900960272876</v>
       </c>
       <c r="K7">
-        <v>1331.530484382262</v>
+        <v>1377.802377039848</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1280.683724764863</v>
+        <v>-1256.771601941741</v>
       </c>
       <c r="J8">
-        <v>1725.170649757068</v>
+        <v>1705.1289903689</v>
       </c>
       <c r="K8">
-        <v>1561.446707765119</v>
+        <v>1527.657629520313</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-104.2999005274104</v>
+        <v>-98.00227946629003</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1335.673599783155</v>
+        <v>-1249.766094853914</v>
       </c>
       <c r="J9">
-        <v>1691.949380196311</v>
+        <v>1597.337531179089</v>
       </c>
       <c r="K9">
-        <v>1771.858269245729</v>
+        <v>1752.931530981263</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>218.1161491414377</v>
+        <v>218.4570613413788</v>
       </c>
       <c r="G10">
-        <v>-79.35189042349114</v>
+        <v>-80.02201270666285</v>
       </c>
       <c r="H10">
-        <v>816.0809351089774</v>
+        <v>840.0367763148761</v>
       </c>
       <c r="I10">
-        <v>-1205.550857844544</v>
+        <v>-1244.492442490384</v>
       </c>
       <c r="J10">
-        <v>1630.766042079333</v>
+        <v>1573.148559404285</v>
       </c>
       <c r="K10">
-        <v>1936.366740228508</v>
+        <v>1936.568836268831</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>164.8860827238605</v>
+        <v>170.9786391114032</v>
       </c>
       <c r="G11">
-        <v>-64.10767566520397</v>
+        <v>-70.20834885330265</v>
       </c>
       <c r="H11">
-        <v>1104.718425158283</v>
+        <v>1005.504585098069</v>
       </c>
       <c r="I11">
-        <v>-1202.132043307281</v>
+        <v>-1241.964296676184</v>
       </c>
       <c r="J11">
-        <v>1629.989441272037</v>
+        <v>1499.634770911543</v>
       </c>
       <c r="K11">
-        <v>2190.150443946908</v>
+        <v>2213.925187107343</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>142.0234591498688</v>
+        <v>137.1969594376407</v>
       </c>
       <c r="G12">
-        <v>-49.52352127423098</v>
+        <v>-49.34956305542631</v>
       </c>
       <c r="H12">
-        <v>1161.930447683918</v>
+        <v>1192.216813992584</v>
       </c>
       <c r="I12">
-        <v>-1178.694834829855</v>
+        <v>-1203.614182581827</v>
       </c>
       <c r="J12">
-        <v>1510.484180093282</v>
+        <v>1513.909088949547</v>
       </c>
       <c r="K12">
-        <v>2433.207939298658</v>
+        <v>2240.541906060383</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>123.0816900091095</v>
+        <v>122.8938876969378</v>
       </c>
       <c r="G13">
-        <v>-33.68884598130852</v>
+        <v>-33.11979818199369</v>
       </c>
       <c r="H13">
-        <v>1218.386305125266</v>
+        <v>1265.03857083374</v>
       </c>
       <c r="I13">
-        <v>-1145.233409465046</v>
+        <v>-1153.569078922361</v>
       </c>
       <c r="J13">
-        <v>1521.88288936796</v>
+        <v>1432.463357455393</v>
       </c>
       <c r="K13">
-        <v>2611.776378352879</v>
+        <v>2425.976719948981</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>106.1231607219543</v>
+        <v>112.2678518213254</v>
       </c>
       <c r="G14">
-        <v>-16.91776425906951</v>
+        <v>-17.68152775830416</v>
       </c>
       <c r="H14">
-        <v>1271.451573915845</v>
+        <v>1355.926034058804</v>
       </c>
       <c r="I14">
-        <v>-1139.791570231851</v>
+        <v>-1073.361345292807</v>
       </c>
       <c r="J14">
-        <v>1356.739305043114</v>
+        <v>1472.898542787583</v>
       </c>
       <c r="K14">
-        <v>2532.565126136336</v>
+        <v>2618.362005234103</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>96.13270576434033</v>
+        <v>98.95936858262317</v>
       </c>
       <c r="G15">
-        <v>-0.9433888511036831</v>
+        <v>-0.9360069377953578</v>
       </c>
       <c r="H15">
-        <v>1362.546244453744</v>
+        <v>1332.408511546306</v>
       </c>
       <c r="I15">
-        <v>-1047.923827002252</v>
+        <v>-1096.754066138461</v>
       </c>
       <c r="J15">
-        <v>1411.966053404565</v>
+        <v>1324.087661628799</v>
       </c>
       <c r="K15">
-        <v>2799.2041954689</v>
+        <v>2651.79089234116</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.56822691497796</v>
+        <v>91.05201517125413</v>
       </c>
       <c r="G16">
-        <v>15.89393325848743</v>
+        <v>15.40776756021507</v>
       </c>
       <c r="H16">
-        <v>1462.358680297099</v>
+        <v>1432.570515013698</v>
       </c>
       <c r="I16">
-        <v>-1019.307471084233</v>
+        <v>-981.0936681783108</v>
       </c>
       <c r="J16">
-        <v>1350.811553269304</v>
+        <v>1320.636791840613</v>
       </c>
       <c r="K16">
-        <v>2862.868230241285</v>
+        <v>2893.798485458311</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>83.27265839223381</v>
+        <v>84.86101306576212</v>
       </c>
       <c r="G17">
-        <v>31.34021537369385</v>
+        <v>30.94811301493814</v>
       </c>
       <c r="H17">
-        <v>1443.810044874266</v>
+        <v>1447.611758542364</v>
       </c>
       <c r="I17">
-        <v>-965.6249575759484</v>
+        <v>-1007.765505363008</v>
       </c>
       <c r="J17">
-        <v>1229.416088822916</v>
+        <v>1316.798755233059</v>
       </c>
       <c r="K17">
-        <v>2981.804300873333</v>
+        <v>2832.98542036135</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>81.93657719189309</v>
+        <v>82.44002369319358</v>
       </c>
       <c r="G18">
-        <v>49.56180324891228</v>
+        <v>50.70614030971937</v>
       </c>
       <c r="H18">
-        <v>1572.453795009565</v>
+        <v>1427.987781814327</v>
       </c>
       <c r="I18">
-        <v>-956.6617282422077</v>
+        <v>-936.7536078959653</v>
       </c>
       <c r="J18">
-        <v>1263.512344536966</v>
+        <v>1237.076195004544</v>
       </c>
       <c r="K18">
-        <v>3166.372496667073</v>
+        <v>3007.788363830019</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>78.98743055783827</v>
+        <v>74.13059622448976</v>
       </c>
       <c r="G19">
-        <v>65.68138743097445</v>
+        <v>67.21071345405056</v>
       </c>
       <c r="H19">
-        <v>1592.942108334789</v>
+        <v>1569.377204143863</v>
       </c>
       <c r="I19">
-        <v>-846.7079754824788</v>
+        <v>-901.8900491642652</v>
       </c>
       <c r="J19">
-        <v>1202.262321648112</v>
+        <v>1141.709963245962</v>
       </c>
       <c r="K19">
-        <v>2968.928994777703</v>
+        <v>3241.227640692131</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>73.52358537665211</v>
+        <v>75.35047947648144</v>
       </c>
       <c r="G20">
-        <v>78.96417847977253</v>
+        <v>84.73324233289934</v>
       </c>
       <c r="H20">
-        <v>1579.110601582736</v>
+        <v>1597.731556586026</v>
       </c>
       <c r="I20">
-        <v>-830.4125091004054</v>
+        <v>-814.4600439941518</v>
       </c>
       <c r="J20">
-        <v>1113.117371352029</v>
+        <v>1130.984956482921</v>
       </c>
       <c r="K20">
-        <v>3293.892390000736</v>
+        <v>3059.552174289694</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>72.43745578706022</v>
+        <v>68.48949932776367</v>
       </c>
       <c r="G21">
-        <v>96.83290170556397</v>
+        <v>101.1417334778229</v>
       </c>
       <c r="H21">
-        <v>1640.250054605384</v>
+        <v>1534.600018699267</v>
       </c>
       <c r="I21">
-        <v>-805.1044547741038</v>
+        <v>-807.6185395085239</v>
       </c>
       <c r="J21">
-        <v>1093.390706403828</v>
+        <v>1118.235532618001</v>
       </c>
       <c r="K21">
-        <v>3282.909067416147</v>
+        <v>3072.988200507926</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>66.99319985026372</v>
+        <v>68.86219732397099</v>
       </c>
       <c r="G22">
-        <v>117.1281789795937</v>
+        <v>114.339941041305</v>
       </c>
       <c r="H22">
-        <v>1662.157160470664</v>
+        <v>1669.314387133196</v>
       </c>
       <c r="I22">
-        <v>-774.6605435361246</v>
+        <v>-774.2228859497587</v>
       </c>
       <c r="J22">
-        <v>1002.876649172995</v>
+        <v>1057.733985106369</v>
       </c>
       <c r="K22">
-        <v>3283.611498041572</v>
+        <v>3143.968190859286</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>65.13133124633899</v>
+        <v>65.49852011300926</v>
       </c>
       <c r="G23">
-        <v>133.8829418896975</v>
+        <v>126.1558438216679</v>
       </c>
       <c r="H23">
-        <v>1601.513227141121</v>
+        <v>1586.676916329992</v>
       </c>
       <c r="I23">
-        <v>-698.8055084627596</v>
+        <v>-673.4708768074069</v>
       </c>
       <c r="J23">
-        <v>939.6220963789794</v>
+        <v>979.1942283722624</v>
       </c>
       <c r="K23">
-        <v>3341.852641216456</v>
+        <v>3152.751360372759</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>62.45847830285263</v>
+        <v>65.5591818467001</v>
       </c>
       <c r="G24">
-        <v>145.4406397513272</v>
+        <v>141.7872173942432</v>
       </c>
       <c r="H24">
-        <v>1604.548595264037</v>
+        <v>1582.766443945388</v>
       </c>
       <c r="I24">
-        <v>-632.4427983896974</v>
+        <v>-624.4095565485057</v>
       </c>
       <c r="J24">
-        <v>906.2375764232615</v>
+        <v>971.9018916372446</v>
       </c>
       <c r="K24">
-        <v>3121.273402236578</v>
+        <v>3190.682442973964</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>63.10322686700612</v>
+        <v>64.51340410879692</v>
       </c>
       <c r="G25">
-        <v>166.5802774248139</v>
+        <v>161.917687298776</v>
       </c>
       <c r="H25">
-        <v>1731.811878846341</v>
+        <v>1729.009385677232</v>
       </c>
       <c r="I25">
-        <v>-609.8843217522571</v>
+        <v>-596.4507374299611</v>
       </c>
       <c r="J25">
-        <v>910.9028003776799</v>
+        <v>891.0471830282507</v>
       </c>
       <c r="K25">
-        <v>3011.998121406196</v>
+        <v>3099.953151477189</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>59.85103777342474</v>
+        <v>57.97621326842767</v>
       </c>
       <c r="G26">
-        <v>173.136449336913</v>
+        <v>178.2526192408445</v>
       </c>
       <c r="H26">
-        <v>1741.267036562994</v>
+        <v>1694.245005259553</v>
       </c>
       <c r="I26">
-        <v>-540.9804593776918</v>
+        <v>-558.559914549172</v>
       </c>
       <c r="J26">
-        <v>834.6945358844381</v>
+        <v>797.9408998676074</v>
       </c>
       <c r="K26">
-        <v>3205.701748610577</v>
+        <v>3141.296010274784</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>55.24923740507364</v>
+        <v>55.59016770978014</v>
       </c>
       <c r="G27">
-        <v>201.0118223725736</v>
+        <v>206.0348128118348</v>
       </c>
       <c r="H27">
-        <v>1674.47093800454</v>
+        <v>1681.071098686434</v>
       </c>
       <c r="I27">
-        <v>-503.0112784232176</v>
+        <v>-515.7789439655231</v>
       </c>
       <c r="J27">
-        <v>759.9724318008496</v>
+        <v>801.9478486218309</v>
       </c>
       <c r="K27">
-        <v>3174.246249176271</v>
+        <v>3140.568198608204</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.06375928429308</v>
+        <v>57.30742734221777</v>
       </c>
       <c r="G28">
-        <v>203.3354859162848</v>
+        <v>223.8761379605911</v>
       </c>
       <c r="H28">
-        <v>1791.334409073483</v>
+        <v>1778.762701654188</v>
       </c>
       <c r="I28">
-        <v>-429.7610468627502</v>
+        <v>-417.1738578539957</v>
       </c>
       <c r="J28">
-        <v>710.0853614012162</v>
+        <v>721.0167362456855</v>
       </c>
       <c r="K28">
-        <v>3059.033151347008</v>
+        <v>2967.237318393515</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.24637020664663</v>
+        <v>56.09484534922343</v>
       </c>
       <c r="G29">
-        <v>230.3094427679119</v>
+        <v>239.3600181079482</v>
       </c>
       <c r="H29">
-        <v>1766.136868223467</v>
+        <v>1807.716033405954</v>
       </c>
       <c r="I29">
-        <v>-386.4649260247558</v>
+        <v>-365.611140846484</v>
       </c>
       <c r="J29">
-        <v>654.6444610738896</v>
+        <v>685.1815625148676</v>
       </c>
       <c r="K29">
-        <v>2903.772994879688</v>
+        <v>2818.310370872363</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>56.10401690429395</v>
+        <v>54.74945357436343</v>
       </c>
       <c r="G30">
-        <v>256.6027622211649</v>
+        <v>251.1157456276387</v>
       </c>
       <c r="H30">
-        <v>1764.693377867957</v>
+        <v>1839.858177228035</v>
       </c>
       <c r="I30">
-        <v>-311.1348476892653</v>
+        <v>-330.2196315923824</v>
       </c>
       <c r="J30">
-        <v>609.013444651182</v>
+        <v>609.9330845387364</v>
       </c>
       <c r="K30">
-        <v>2916.372312370547</v>
+        <v>2763.483748145058</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.68674102295592</v>
+        <v>51.74052753769366</v>
       </c>
       <c r="G31">
-        <v>262.2157816543274</v>
+        <v>268.6668940463456</v>
       </c>
       <c r="H31">
-        <v>1746.447552705475</v>
+        <v>1839.890825121194</v>
       </c>
       <c r="I31">
-        <v>-271.7040816778003</v>
+        <v>-265.1762557363581</v>
       </c>
       <c r="J31">
-        <v>579.836996235921</v>
+        <v>577.0018593956818</v>
       </c>
       <c r="K31">
-        <v>2696.48445034414</v>
+        <v>2537.076568781412</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.40752874120667</v>
+        <v>50.71735110199277</v>
       </c>
       <c r="G32">
-        <v>288.2880890636502</v>
+        <v>277.2994874946123</v>
       </c>
       <c r="H32">
-        <v>1822.881496094549</v>
+        <v>1799.351756546868</v>
       </c>
       <c r="I32">
-        <v>-206.6681457198675</v>
+        <v>-198.1899126676644</v>
       </c>
       <c r="J32">
-        <v>560.8650870264762</v>
+        <v>519.2481455348047</v>
       </c>
       <c r="K32">
-        <v>2583.260361228861</v>
+        <v>2586.731939247819</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.56518721456366</v>
+        <v>51.5875362003779</v>
       </c>
       <c r="G33">
-        <v>305.6637869740984</v>
+        <v>297.7220435248953</v>
       </c>
       <c r="H33">
-        <v>1861.997941110083</v>
+        <v>1822.913079804488</v>
       </c>
       <c r="I33">
-        <v>-151.9603709459199</v>
+        <v>-145.028242273234</v>
       </c>
       <c r="J33">
-        <v>474.805719726935</v>
+        <v>468.3756878488595</v>
       </c>
       <c r="K33">
-        <v>2324.934183464402</v>
+        <v>2402.724020939724</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.69106750481848</v>
+        <v>50.60681768966976</v>
       </c>
       <c r="G34">
-        <v>301.0972204430753</v>
+        <v>320.2821693276194</v>
       </c>
       <c r="H34">
-        <v>1818.474390346746</v>
+        <v>1818.574494619462</v>
       </c>
       <c r="I34">
-        <v>-81.04707194343378</v>
+        <v>-84.12036775720365</v>
       </c>
       <c r="J34">
-        <v>436.8428167663275</v>
+        <v>438.2645409952071</v>
       </c>
       <c r="K34">
-        <v>2203.491432702338</v>
+        <v>2238.284125410574</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.00512661336063</v>
+        <v>46.10134001641958</v>
       </c>
       <c r="G35">
-        <v>317.5306294408407</v>
+        <v>324.3556753396737</v>
       </c>
       <c r="H35">
-        <v>1853.629560964021</v>
+        <v>1866.94029119823</v>
       </c>
       <c r="I35">
-        <v>-18.20143162124185</v>
+        <v>-18.99432525846347</v>
       </c>
       <c r="J35">
-        <v>383.8035471383551</v>
+        <v>384.3960548503846</v>
       </c>
       <c r="K35">
-        <v>2008.749620591813</v>
+        <v>2092.080109509427</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>48.93984372318611</v>
+        <v>47.85319528408692</v>
       </c>
       <c r="G36">
-        <v>346.9797876246076</v>
+        <v>337.9472017979671</v>
       </c>
       <c r="H36">
-        <v>1847.996918984197</v>
+        <v>1877.700497965558</v>
       </c>
       <c r="I36">
-        <v>46.9686589694544</v>
+        <v>49.57980366266234</v>
       </c>
       <c r="J36">
-        <v>349.4958664509234</v>
+        <v>348.473448428068</v>
       </c>
       <c r="K36">
-        <v>1874.146322479761</v>
+        <v>1790.469344228785</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.58628882116238</v>
+        <v>47.362639837298</v>
       </c>
       <c r="G37">
-        <v>344.6126625280514</v>
+        <v>355.4544972143544</v>
       </c>
       <c r="H37">
-        <v>1758.033529823117</v>
+        <v>1792.610896287007</v>
       </c>
       <c r="I37">
-        <v>120.806755540986</v>
+        <v>116.0123449779931</v>
       </c>
       <c r="J37">
-        <v>297.1685144193583</v>
+        <v>287.8247127825022</v>
       </c>
       <c r="K37">
-        <v>1558.254330994413</v>
+        <v>1594.911248813186</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>43.56294221564374</v>
+        <v>47.34030124259598</v>
       </c>
       <c r="G38">
-        <v>380.9067111326371</v>
+        <v>370.7326153946653</v>
       </c>
       <c r="H38">
-        <v>1921.843059516737</v>
+        <v>1769.999672214853</v>
       </c>
       <c r="I38">
-        <v>183.1071647746664</v>
+        <v>187.0953803310055</v>
       </c>
       <c r="J38">
-        <v>243.8734322022127</v>
+        <v>236.6614101049101</v>
       </c>
       <c r="K38">
-        <v>1439.569676953794</v>
+        <v>1433.432393550606</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.35869323780137</v>
+        <v>47.05827306957909</v>
       </c>
       <c r="G39">
-        <v>400.1202410273132</v>
+        <v>411.9581345454064</v>
       </c>
       <c r="H39">
-        <v>1917.477908410947</v>
+        <v>1820.032132900839</v>
       </c>
       <c r="I39">
-        <v>262.8355799780421</v>
+        <v>254.0306142562307</v>
       </c>
       <c r="J39">
-        <v>196.4819651835185</v>
+        <v>192.1082267824121</v>
       </c>
       <c r="K39">
-        <v>1131.674372892636</v>
+        <v>1126.570203777944</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.45499810326281</v>
+        <v>43.17749424321791</v>
       </c>
       <c r="G40">
-        <v>423.6426048781683</v>
+        <v>410.2770072352222</v>
       </c>
       <c r="H40">
-        <v>1879.998746133591</v>
+        <v>1875.31425980912</v>
       </c>
       <c r="I40">
-        <v>327.6339337453694</v>
+        <v>321.4210217168514</v>
       </c>
       <c r="J40">
-        <v>146.2755947866324</v>
+        <v>154.1873626533252</v>
       </c>
       <c r="K40">
-        <v>882.2003532283754</v>
+        <v>923.2312850382385</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.85499054280098</v>
+        <v>42.35027776577492</v>
       </c>
       <c r="G41">
-        <v>407.1668850164056</v>
+        <v>425.267180136466</v>
       </c>
       <c r="H41">
-        <v>1790.798421795244</v>
+        <v>1790.171742372733</v>
       </c>
       <c r="I41">
-        <v>402.6014201619488</v>
+        <v>388.2115448373123</v>
       </c>
       <c r="J41">
-        <v>104.6093755613563</v>
+        <v>98.81039036526536</v>
       </c>
       <c r="K41">
-        <v>602.6558164635147</v>
+        <v>601.1126437087242</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.94658063316894</v>
+        <v>42.66009701284811</v>
       </c>
       <c r="G42">
-        <v>451.7448753095424</v>
+        <v>422.9968456811446</v>
       </c>
       <c r="H42">
-        <v>1858.395636577133</v>
+        <v>1893.30735237735</v>
       </c>
       <c r="I42">
-        <v>470.4496580654762</v>
+        <v>459.071360919822</v>
       </c>
       <c r="J42">
-        <v>55.11917705030433</v>
+        <v>54.04395139870123</v>
       </c>
       <c r="K42">
-        <v>334.871135485529</v>
+        <v>330.8129821180298</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>44.05470757315123</v>
+        <v>44.14216573944108</v>
       </c>
       <c r="G43">
-        <v>470.2450578754911</v>
+        <v>451.8541693833439</v>
       </c>
       <c r="H43">
-        <v>1873.432844453055</v>
+        <v>1932.046642704657</v>
       </c>
       <c r="I43">
-        <v>553.928640982382</v>
+        <v>576.3608493134691</v>
       </c>
       <c r="J43">
-        <v>5.384736930108997</v>
+        <v>5.129765509916439</v>
       </c>
       <c r="K43">
-        <v>32.09729838588221</v>
+        <v>33.20876302287243</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.80898145615889</v>
+        <v>41.31242957477091</v>
       </c>
       <c r="G44">
-        <v>479.6218715900482</v>
+        <v>477.4518830040756</v>
       </c>
       <c r="H44">
-        <v>1957.865717262531</v>
+        <v>1882.387220360857</v>
       </c>
       <c r="I44">
-        <v>661.4771616278937</v>
+        <v>657.0432311078919</v>
       </c>
       <c r="J44">
-        <v>-44.8931985261602</v>
+        <v>-43.85263496764578</v>
       </c>
       <c r="K44">
-        <v>-289.003749875353</v>
+        <v>-271.2753503579428</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.42887214496086</v>
+        <v>41.78067843133131</v>
       </c>
       <c r="G45">
-        <v>484.1831511326124</v>
+        <v>473.7765778669807</v>
       </c>
       <c r="H45">
-        <v>1835.528335426923</v>
+        <v>1825.867979555097</v>
       </c>
       <c r="I45">
-        <v>729.7326105204588</v>
+        <v>704.8458324160836</v>
       </c>
       <c r="J45">
-        <v>-93.45041607424461</v>
+        <v>-89.73816480574494</v>
       </c>
       <c r="K45">
-        <v>-639.9332173071634</v>
+        <v>-597.4796196151543</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>42.41318598360019</v>
+        <v>40.90691491142243</v>
       </c>
       <c r="G46">
-        <v>505.195745840088</v>
+        <v>532.8773940978948</v>
       </c>
       <c r="H46">
-        <v>1889.896173001923</v>
+        <v>1948.505871915368</v>
       </c>
       <c r="I46">
-        <v>799.1495408134591</v>
+        <v>766.9754793161746</v>
       </c>
       <c r="J46">
-        <v>-144.001522414291</v>
+        <v>-144.6206768543097</v>
       </c>
       <c r="K46">
-        <v>-962.1303522211277</v>
+        <v>-953.7914599605145</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.4395315852552</v>
+        <v>39.68121237991508</v>
       </c>
       <c r="G47">
-        <v>509.6608120275688</v>
+        <v>545.3150501245541</v>
       </c>
       <c r="H47">
-        <v>2018.52851670859</v>
+        <v>1946.24204793721</v>
       </c>
       <c r="I47">
-        <v>902.0296799259532</v>
+        <v>920.2284053886381</v>
       </c>
       <c r="J47">
-        <v>-188.1855748850363</v>
+        <v>-188.0753861627715</v>
       </c>
       <c r="K47">
-        <v>-1262.781611144625</v>
+        <v>-1332.886603126398</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>37.76851817819213</v>
+        <v>41.34913903684653</v>
       </c>
       <c r="G48">
-        <v>570.7932492343122</v>
+        <v>560.9936524311611</v>
       </c>
       <c r="H48">
-        <v>1877.15344467151</v>
+        <v>2029.768541979017</v>
       </c>
       <c r="I48">
-        <v>960.03096843674</v>
+        <v>954.8646381499045</v>
       </c>
       <c r="J48">
-        <v>-234.4117462298374</v>
+        <v>-243.8975356005858</v>
       </c>
       <c r="K48">
-        <v>-1773.037815390859</v>
+        <v>-1712.532752904048</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.47872921966022</v>
+        <v>38.30623899539025</v>
       </c>
       <c r="G49">
-        <v>545.7113331924409</v>
+        <v>534.9235566608314</v>
       </c>
       <c r="H49">
-        <v>1930.747151316002</v>
+        <v>1964.045269770442</v>
       </c>
       <c r="I49">
-        <v>1024.864362161366</v>
+        <v>1072.148233229481</v>
       </c>
       <c r="J49">
-        <v>-294.3965895342393</v>
+        <v>-288.0110253472374</v>
       </c>
       <c r="K49">
-        <v>-2162.210309836719</v>
+        <v>-1997.755414853797</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>36.95753473456604</v>
+        <v>36.75645943992716</v>
       </c>
       <c r="G50">
-        <v>565.986296054953</v>
+        <v>573.3496585629496</v>
       </c>
       <c r="H50">
-        <v>2017.245446436756</v>
+        <v>1964.286135469975</v>
       </c>
       <c r="I50">
-        <v>1194.883040392196</v>
+        <v>1150.116502310181</v>
       </c>
       <c r="J50">
-        <v>-341.9908924119242</v>
+        <v>-318.9027796785115</v>
       </c>
       <c r="K50">
-        <v>-2399.116023069918</v>
+        <v>-2519.10309401825</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.28213291366676</v>
+        <v>38.93410624312081</v>
       </c>
       <c r="G51">
-        <v>585.4716989733703</v>
+        <v>595.7495530198212</v>
       </c>
       <c r="H51">
-        <v>2027.64487746859</v>
+        <v>1936.662456489179</v>
       </c>
       <c r="I51">
-        <v>1255.316133189719</v>
+        <v>1253.917160019865</v>
       </c>
       <c r="J51">
-        <v>-372.5997438613692</v>
+        <v>-395.0021185759599</v>
       </c>
       <c r="K51">
-        <v>-3015.778398913153</v>
+        <v>-2959.910732976746</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.93852377807073</v>
+        <v>37.65906140401158</v>
       </c>
       <c r="G52">
-        <v>621.1160380759185</v>
+        <v>610.3085828777763</v>
       </c>
       <c r="H52">
-        <v>1927.02382332073</v>
+        <v>2050.913930223161</v>
       </c>
       <c r="I52">
-        <v>1410.684077481826</v>
+        <v>1403.011999113024</v>
       </c>
       <c r="J52">
-        <v>-416.5087802892945</v>
+        <v>-434.3464909300844</v>
       </c>
       <c r="K52">
-        <v>-3463.582672850854</v>
+        <v>-3506.392542869176</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.2467163591773</v>
+        <v>35.83685963518172</v>
       </c>
       <c r="G53">
-        <v>628.6046830209899</v>
+        <v>608.7504676980166</v>
       </c>
       <c r="H53">
-        <v>2065.361839280296</v>
+        <v>1944.151689679424</v>
       </c>
       <c r="I53">
-        <v>1388.650581849682</v>
+        <v>1421.803956952648</v>
       </c>
       <c r="J53">
-        <v>-473.1541185797952</v>
+        <v>-499.2457474017679</v>
       </c>
       <c r="K53">
-        <v>-3974.582134990402</v>
+        <v>-3679.497783013905</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.45584309380339</v>
+        <v>35.35273216363759</v>
       </c>
       <c r="G54">
-        <v>622.990277435035</v>
+        <v>666.1737377523937</v>
       </c>
       <c r="H54">
-        <v>1971.668275079479</v>
+        <v>1896.502083028154</v>
       </c>
       <c r="I54">
-        <v>1564.536067544604</v>
+        <v>1544.897929875536</v>
       </c>
       <c r="J54">
-        <v>-548.9094720854342</v>
+        <v>-519.9424134131045</v>
       </c>
       <c r="K54">
-        <v>-4453.820766930586</v>
+        <v>-4201.052642012143</v>
       </c>
     </row>
   </sheetData>
